--- a/timetabling_GA/results/HK2_CT02/TKB_Semester_Schedule.xlsx
+++ b/timetabling_GA/results/HK2_CT02/TKB_Semester_Schedule.xlsx
@@ -148,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -178,7 +178,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -544,7 +543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,13 +684,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -699,11 +700,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -715,19 +721,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -738,20 +744,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -759,10 +772,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -770,9 +788,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -783,39 +801,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -827,77 +845,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -909,7 +873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,13 +1014,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -1064,11 +1030,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -1080,19 +1051,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -1103,20 +1074,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -1124,10 +1102,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1135,9 +1118,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -1148,39 +1131,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -1192,77 +1175,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1274,7 +1203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,13 +1344,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -1429,11 +1360,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -1445,19 +1381,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -1468,20 +1404,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -1489,10 +1432,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1500,9 +1448,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -1513,39 +1461,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -1557,77 +1505,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1639,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1780,13 +1674,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -1794,11 +1690,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -1810,19 +1711,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -1833,20 +1734,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -1854,10 +1762,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -1865,9 +1778,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -1878,39 +1791,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -1922,77 +1835,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2004,7 +1863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2145,13 +2004,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -2159,11 +2020,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -2175,19 +2041,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -2198,20 +2064,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -2219,10 +2092,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2230,9 +2108,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -2243,39 +2121,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -2287,77 +2165,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2369,7 +2193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2510,13 +2334,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -2524,11 +2350,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -2540,19 +2371,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -2563,20 +2394,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -2584,10 +2422,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2595,9 +2438,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -2608,39 +2451,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -2652,77 +2495,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2734,7 +2523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2875,13 +2664,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -2889,11 +2680,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -2905,19 +2701,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -2928,20 +2724,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -2949,10 +2752,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -2960,9 +2768,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -2973,39 +2781,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -3017,77 +2825,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3099,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3240,13 +2994,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -3254,11 +3010,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -3270,19 +3031,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -3293,20 +3054,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -3314,10 +3082,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -3325,9 +3098,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -3338,39 +3111,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -3382,77 +3155,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3464,7 +3183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3605,13 +3324,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -3619,11 +3340,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -3635,19 +3361,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -3658,20 +3384,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -3679,10 +3412,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -3690,9 +3428,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -3703,39 +3441,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -3747,77 +3485,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3829,7 +3513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3970,13 +3654,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -3984,11 +3670,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -4000,19 +3691,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -4023,20 +3714,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -4044,10 +3742,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4055,9 +3758,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -4068,39 +3771,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -4112,77 +3815,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4194,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4335,13 +3984,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -4349,11 +4000,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -4365,19 +4021,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -4388,20 +4044,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -4409,10 +4072,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4420,9 +4088,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -4433,39 +4101,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -4477,77 +4145,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4559,7 +4173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4700,13 +4314,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -4714,11 +4330,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -4730,19 +4351,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -4753,20 +4374,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -4774,10 +4402,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -4785,9 +4418,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -4798,39 +4431,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -4842,77 +4475,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4924,7 +4503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5065,13 +4644,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -5079,11 +4660,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -5095,19 +4681,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -5118,20 +4704,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -5139,10 +4732,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -5150,9 +4748,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -5163,39 +4761,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -5207,77 +4805,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5289,7 +4833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5430,13 +4974,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -5444,11 +4990,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -5460,19 +5011,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -5483,20 +5034,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -5504,10 +5062,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -5515,9 +5078,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -5528,39 +5091,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -5572,77 +5135,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5654,7 +5163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5795,13 +5304,15 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL04</t>
         </is>
       </c>
       <c r="C9" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr"/>
+      <c r="F9" s="9" t="inlineStr">
         <is>
           <t>Kinh tế vi mô
 (Lý thuyết)
@@ -5809,11 +5320,16 @@
 GV: Phan Thị H</t>
         </is>
       </c>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
       <c r="G9" s="8" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="10" t="n"/>
@@ -5825,19 +5341,19 @@
       <c r="C10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="D10" s="8" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E10" s="8" t="inlineStr"/>
       <c r="F10" s="8" t="inlineStr"/>
       <c r="G10" s="8" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr"/>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
+      <c r="I10" s="8" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="7" t="inlineStr">
@@ -5848,20 +5364,27 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>CL04</t>
+          <t>CL08</t>
         </is>
       </c>
       <c r="C11" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="E11" s="8" t="inlineStr"/>
       <c r="F11" s="8" t="inlineStr"/>
       <c r="G11" s="8" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr"/>
       <c r="I11" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
+          <t>Kinh tế vi mô
 (Lý thuyết)
 Phòng: R104
 GV: Phan Thị H</t>
@@ -5869,10 +5392,15 @@
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
@@ -5880,9 +5408,9 @@
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vĩ mô
+(Lý thuyết)
+Phòng: R102
 GV: Phan Thị H</t>
         </is>
       </c>
@@ -5893,39 +5421,39 @@
       <c r="I12" s="8" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>CL03</t>
+          <t>CL09</t>
         </is>
       </c>
       <c r="C13" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R103
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr"/>
+      <c r="E13" s="9" t="inlineStr">
+        <is>
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R104
+GV: Phan Thị H</t>
+        </is>
+      </c>
       <c r="F13" s="8" t="inlineStr"/>
       <c r="G13" s="8" t="inlineStr"/>
       <c r="H13" s="8" t="inlineStr"/>
       <c r="I13" s="8" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>CL08</t>
+          <t>CL03</t>
         </is>
       </c>
       <c r="C14" s="8" t="n">
@@ -5937,77 +5465,23 @@
       <c r="G14" s="8" t="inlineStr"/>
       <c r="H14" s="9" t="inlineStr">
         <is>
-          <t>Kinh tế vĩ mô
-(Lý thuyết)
-Phòng: R104
+          <t>Kinh tế vi mô
+(Lý thuyết)
+Phòng: R103
 GV: Phan Thị H</t>
         </is>
       </c>
       <c r="I14" s="8" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="8" t="inlineStr">
-        <is>
-          <t>CL09</t>
-        </is>
-      </c>
-      <c r="C15" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R101
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
-      <c r="B16" s="8" t="inlineStr">
-        <is>
-          <t>CL04</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr"/>
-      <c r="E16" s="9" t="inlineStr">
-        <is>
-          <t>Kinh tế vi mô
-(Lý thuyết)
-Phòng: R104
-GV: Phan Thị H</t>
-        </is>
-      </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
